--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H2">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>9.373015252705775</v>
+        <v>1.348292173576889</v>
       </c>
       <c r="R2">
-        <v>84.35713727435198</v>
+        <v>12.134629562192</v>
       </c>
       <c r="S2">
-        <v>0.004420929326750292</v>
+        <v>0.0004615493473419005</v>
       </c>
       <c r="T2">
-        <v>0.004420929326750292</v>
+        <v>0.0004615493473419005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
-        <v>166.3093910513664</v>
+        <v>60.59837590762755</v>
       </c>
       <c r="R3">
-        <v>1496.784519462298</v>
+        <v>545.385383168648</v>
       </c>
       <c r="S3">
-        <v>0.07844242694481063</v>
+        <v>0.02074412460316017</v>
       </c>
       <c r="T3">
-        <v>0.07844242694481063</v>
+        <v>0.02074412460316017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>78.88320175810644</v>
+        <v>30.45974967184356</v>
       </c>
       <c r="R4">
-        <v>709.948815822958</v>
+        <v>274.137747046592</v>
       </c>
       <c r="S4">
-        <v>0.03720649659027286</v>
+        <v>0.01042702602355152</v>
       </c>
       <c r="T4">
-        <v>0.03720649659027286</v>
+        <v>0.01042702602355152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>43.99370024769333</v>
+        <v>17.36804636314333</v>
       </c>
       <c r="R5">
-        <v>395.94330222924</v>
+        <v>156.31241726829</v>
       </c>
       <c r="S5">
-        <v>0.02075031720034205</v>
+        <v>0.005945455013839057</v>
       </c>
       <c r="T5">
-        <v>0.02075031720034205</v>
+        <v>0.005945455013839058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
         <v>780.5989109190982</v>
@@ -818,10 +818,10 @@
         <v>7025.390198271884</v>
       </c>
       <c r="S6">
-        <v>0.3681816923017771</v>
+        <v>0.2672157600045301</v>
       </c>
       <c r="T6">
-        <v>0.3681816923017769</v>
+        <v>0.2672157600045302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>370.2505372241483</v>
+        <v>392.3677336988933</v>
       </c>
       <c r="R7">
-        <v>3332.254835017335</v>
+        <v>3531.30960329004</v>
       </c>
       <c r="S7">
-        <v>0.1746344601100235</v>
+        <v>0.1343158960318755</v>
       </c>
       <c r="T7">
-        <v>0.1746344601100234</v>
+        <v>0.1343158960318755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N8">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q8">
-        <v>24.69630389458133</v>
+        <v>23.90702825406311</v>
       </c>
       <c r="R8">
-        <v>222.266735051232</v>
+        <v>215.163254286568</v>
       </c>
       <c r="S8">
-        <v>0.01164839821618493</v>
+        <v>0.008183888851237891</v>
       </c>
       <c r="T8">
-        <v>0.01164839821618492</v>
+        <v>0.008183888851237893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>248.871689</v>
       </c>
       <c r="O9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q9">
-        <v>438.1970103741853</v>
+        <v>1074.490465320032</v>
       </c>
       <c r="R9">
-        <v>3943.773093367668</v>
+        <v>9670.414187880293</v>
       </c>
       <c r="S9">
-        <v>0.2066824774981884</v>
+        <v>0.3678211464195484</v>
       </c>
       <c r="T9">
-        <v>0.2066824774981884</v>
+        <v>0.3678211464195484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N10">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q10">
-        <v>207.8438442990253</v>
+        <v>540.0922072287965</v>
       </c>
       <c r="R10">
-        <v>1870.594598691228</v>
+        <v>4860.829865059168</v>
       </c>
       <c r="S10">
-        <v>0.09803280181165053</v>
+        <v>0.1848851537049153</v>
       </c>
       <c r="T10">
-        <v>0.0980328018116505</v>
+        <v>0.1848851537049154</v>
       </c>
     </row>
   </sheetData>
